--- a/Experiments Configs/Recombination Probability Statistics/recombination_probability_graph_data.xlsx
+++ b/Experiments Configs/Recombination Probability Statistics/recombination_probability_graph_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INFORMATICA\IA\PROJECTO_IA_REPO\ProjCatch_TODO\Experiments Configs\Recombination Probability Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B8E04D-BFFB-4ED7-B791-9573C24A1959}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{44F87EAA-15D1-4104-B176-3AF73BF78383}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="1332" windowWidth="14568" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>Population size:</t>
   </si>
@@ -34,13 +34,7 @@
     <t>Recombination:</t>
   </si>
   <si>
-    <t>Recombination prob.:</t>
-  </si>
-  <si>
     <t>Mutation:</t>
-  </si>
-  <si>
-    <t>Mutation prob.:</t>
   </si>
   <si>
     <t>Average:</t>
@@ -55,94 +49,16 @@
     <t>PMX</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>Insert</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>Best Fitness</t>
   </si>
   <si>
-    <t>150.6</t>
+    <t>Recombination prob,:</t>
   </si>
   <si>
-    <t>13.64453492550528</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>161.13333333333333</t>
-  </si>
-  <si>
-    <t>13.172530339898845</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>150.46666666666667</t>
-  </si>
-  <si>
-    <t>15.316077246547897</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>154.4</t>
-  </si>
-  <si>
-    <t>14.961283367412037</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>159.33333333333334</t>
-  </si>
-  <si>
-    <t>13.898041428760944</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>151.0</t>
-  </si>
-  <si>
-    <t>14.72186582377836</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>154.66666666666666</t>
-  </si>
-  <si>
-    <t>15.225709251861543</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>156.73333333333332</t>
-  </si>
-  <si>
-    <t>13.88028177747924</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>151.86666666666667</t>
-  </si>
-  <si>
-    <t>14.849766178480913</t>
-  </si>
-  <si>
-    <t>Best Fitness</t>
+    <t>Mutation prob,:</t>
   </si>
   <si>
     <t>Average Fitness</t>
@@ -154,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -734,7 +650,6 @@
               <a:rPr lang="pt-PT" baseline="0"/>
               <a:t> Average Fitness and Standard Deviation by Recombination Probability</a:t>
             </a:r>
-            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -742,7 +657,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15916666666666668"/>
+          <c:x val="0.11918714950561651"/>
           <c:y val="0"/>
         </c:manualLayout>
       </c:layout>
@@ -821,10 +736,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2228864368542559E-2"/>
-          <c:y val="0.13114348206474191"/>
-          <c:w val="0.93777109162167738"/>
-          <c:h val="0.47074606299212596"/>
+          <c:x val="8.8680733033031589E-2"/>
+          <c:y val="0.14472675481659186"/>
+          <c:w val="0.90575487800478827"/>
+          <c:h val="0.34125573648179441"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -836,11 +751,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic_average_fitness!$A$14</c:f>
+              <c:f>statistic_average_fitness!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0,2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -857,27 +772,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.2522522522522615E-2"/>
-                  <c:y val="-2.5041736227045076E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-2718-41E5-B3BD-4B4AD43ACB21}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -936,7 +830,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic_average_fitness!$B$13:$D$13</c:f>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -953,25 +847,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic_average_fitness!$B$14:$D$14</c:f>
+              <c:f>statistic_average_fitness!$B$19:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>124</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.6</c:v>
+                  <c:v>160.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.6445349255052</c:v>
+                  <c:v>14.645590917861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2718-41E5-B3BD-4B4AD43ACB21}"/>
+              <c16:uniqueId val="{00000000-F3D0-44A6-A821-4DCABE92DF17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -980,11 +874,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic_average_fitness!$A$15</c:f>
+              <c:f>statistic_average_fitness!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.55</c:v>
+                  <c:v>0,25</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1001,27 +895,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.001001001001001E-2"/>
-                  <c:y val="-1.9476905954368393E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-2718-41E5-B3BD-4B4AD43ACB21}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1080,7 +953,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic_average_fitness!$B$13:$D$13</c:f>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1097,25 +970,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic_average_fitness!$B$15:$D$15</c:f>
+              <c:f>statistic_average_fitness!$B$20:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>140</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161.13333333333301</c:v>
+                  <c:v>167.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.172530339898801</c:v>
+                  <c:v>16.698103684750102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2718-41E5-B3BD-4B4AD43ACB21}"/>
+              <c16:uniqueId val="{00000001-F3D0-44A6-A821-4DCABE92DF17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1124,11 +997,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic_average_fitness!$A$16</c:f>
+              <c:f>statistic_average_fitness!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0,35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1145,27 +1018,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.2512512512512512E-3"/>
-                  <c:y val="-3.0606566499721759E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-2718-41E5-B3BD-4B4AD43ACB21}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1224,7 +1076,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic_average_fitness!$B$13:$D$13</c:f>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1241,25 +1093,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic_average_fitness!$B$16:$D$16</c:f>
+              <c:f>statistic_average_fitness!$B$21:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>118</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.46666666666599</c:v>
+                  <c:v>156.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.316077246547801</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2718-41E5-B3BD-4B4AD43ACB21}"/>
+              <c16:uniqueId val="{00000002-F3D0-44A6-A821-4DCABE92DF17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1268,11 +1120,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic_average_fitness!$A$17</c:f>
+              <c:f>statistic_average_fitness!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.65</c:v>
+                  <c:v>0,4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1289,27 +1141,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-5.5648302726767091E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-2718-41E5-B3BD-4B4AD43ACB21}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1368,7 +1199,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic_average_fitness!$B$13:$D$13</c:f>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1385,25 +1216,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic_average_fitness!$B$17:$D$17</c:f>
+              <c:f>statistic_average_fitness!$B$22:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>126</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.4</c:v>
+                  <c:v>156.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.961283367411999</c:v>
+                  <c:v>12.631530214330899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2718-41E5-B3BD-4B4AD43ACB21}"/>
+              <c16:uniqueId val="{00000003-F3D0-44A6-A821-4DCABE92DF17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1412,11 +1243,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic_average_fitness!$A$18</c:f>
+              <c:f>statistic_average_fitness!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0,45</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1433,27 +1264,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.5075075075074155E-3"/>
-                  <c:y val="-1.9476905954368393E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-2718-41E5-B3BD-4B4AD43ACB21}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1512,7 +1322,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic_average_fitness!$B$13:$D$13</c:f>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1529,25 +1339,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
+              <c:f>statistic_average_fitness!$B$23:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>128</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.333333333333</c:v>
+                  <c:v>154.13333333333301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.8980414287609</c:v>
+                  <c:v>11.8988328092389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2718-41E5-B3BD-4B4AD43ACB21}"/>
+              <c16:uniqueId val="{00000004-F3D0-44A6-A821-4DCABE92DF17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1556,11 +1366,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic_average_fitness!$A$19</c:f>
+              <c:f>statistic_average_fitness!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.75</c:v>
+                  <c:v>0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1577,27 +1387,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.1261261261261169E-2"/>
-                  <c:y val="-1.1129660545353392E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-2718-41E5-B3BD-4B4AD43ACB21}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1656,7 +1445,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic_average_fitness!$B$13:$D$13</c:f>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1673,25 +1462,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic_average_fitness!$B$19:$D$19</c:f>
+              <c:f>statistic_average_fitness!$B$24:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>122</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
+                  <c:v>150.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.7218658237783</c:v>
+                  <c:v>13.6445349255052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2718-41E5-B3BD-4B4AD43ACB21}"/>
+              <c16:uniqueId val="{00000005-F3D0-44A6-A821-4DCABE92DF17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1700,11 +1489,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic_average_fitness!$A$20</c:f>
+              <c:f>statistic_average_fitness!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0,55</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1723,27 +1512,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.6266266266266174E-2"/>
-                  <c:y val="-2.225932109070676E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-2718-41E5-B3BD-4B4AD43ACB21}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1802,7 +1570,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic_average_fitness!$B$13:$D$13</c:f>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1819,25 +1587,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic_average_fitness!$B$20:$D$20</c:f>
+              <c:f>statistic_average_fitness!$B$25:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>122</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.666666666666</c:v>
+                  <c:v>161.13333333333301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.225709251861501</c:v>
+                  <c:v>13.172530339898801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2718-41E5-B3BD-4B4AD43ACB21}"/>
+              <c16:uniqueId val="{00000006-F3D0-44A6-A821-4DCABE92DF17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1846,11 +1614,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic_average_fitness!$A$21</c:f>
+              <c:f>statistic_average_fitness!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.85</c:v>
+                  <c:v>0,6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1869,27 +1637,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.1281281281281284E-2"/>
-                  <c:y val="-2.2259321090706732E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-2718-41E5-B3BD-4B4AD43ACB21}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1948,7 +1695,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic_average_fitness!$B$13:$D$13</c:f>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1965,25 +1712,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic_average_fitness!$B$21:$D$21</c:f>
+              <c:f>statistic_average_fitness!$B$26:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>128</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.73333333333301</c:v>
+                  <c:v>150.46666666666599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.880281777479199</c:v>
+                  <c:v>15.316077246547801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-2718-41E5-B3BD-4B4AD43ACB21}"/>
+              <c16:uniqueId val="{00000007-F3D0-44A6-A821-4DCABE92DF17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1992,11 +1739,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>statistic_average_fitness!$A$22</c:f>
+              <c:f>statistic_average_fitness!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0,65</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2015,27 +1762,6 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.8788788788788699E-2"/>
-                  <c:y val="-1.6694490818030049E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-2718-41E5-B3BD-4B4AD43ACB21}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2094,7 +1820,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>statistic_average_fitness!$B$13:$D$13</c:f>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2111,7 +1837,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>statistic_average_fitness!$B$22:$D$22</c:f>
+              <c:f>statistic_average_fitness!$B$27:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2119,17 +1845,644 @@
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151.86666666666599</c:v>
+                  <c:v>154.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.8497661784809</c:v>
+                  <c:v>14.961283367411999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-2718-41E5-B3BD-4B4AD43ACB21}"/>
+              <c16:uniqueId val="{00000008-F3D0-44A6-A821-4DCABE92DF17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Best Fitness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average Fitness</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic_average_fitness!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.8980414287609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F3D0-44A6-A821-4DCABE92DF17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Best Fitness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average Fitness</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic_average_fitness!$B$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.7218658237783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-F3D0-44A6-A821-4DCABE92DF17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Best Fitness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average Fitness</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic_average_fitness!$B$30:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154.666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.225709251861501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-F3D0-44A6-A821-4DCABE92DF17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,85</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Best Fitness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average Fitness</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic_average_fitness!$B$31:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>156.73333333333301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.880281777479199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F3D0-44A6-A821-4DCABE92DF17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0,9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>statistic_average_fitness!$B$18:$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Best Fitness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average Fitness</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic_average_fitness!$B$32:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.86666666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.8497661784809</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-F3D0-44A6-A821-4DCABE92DF17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2143,12 +2496,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1011808240"/>
-        <c:axId val="1005887328"/>
+        <c:axId val="46417808"/>
+        <c:axId val="46618048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1011808240"/>
+        <c:axId val="46417808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2538,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1005887328"/>
+        <c:crossAx val="46618048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2193,7 +2546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1005887328"/>
+        <c:axId val="46618048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,31 +2567,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-PT"/>
-                  <a:t>Fitness</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2299,7 +2627,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1011808240"/>
+        <c:crossAx val="46417808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2356,10 +2684,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31186333971767044"/>
-          <c:y val="5.9619488298520283E-2"/>
-          <c:w val="0.37891383157051167"/>
-          <c:h val="4.6875328083989511E-2"/>
+          <c:x val="0.1389916702462112"/>
+          <c:y val="9.6682163535209184E-2"/>
+          <c:w val="0.68218443764407788"/>
+          <c:h val="3.6934253912181497E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2973,23 +3301,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>526473</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>55419</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9D7620-8364-4692-80D0-4D43E81D0559}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9338FDE4-F36A-45A0-A599-618ABA8B86F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3306,18 +3634,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3334,19 +3666,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3357,25 +3689,25 @@
         <v>250</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="J2">
+        <v>14.645590917861</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3386,25 +3718,25 @@
         <v>250</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <v>167.2</v>
+      </c>
+      <c r="J3">
+        <v>16.698103684750102</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3415,25 +3747,25 @@
         <v>250</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0.35</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
+      <c r="G4">
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>156.6</v>
+      </c>
+      <c r="J4">
+        <v>13.8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3444,25 +3776,25 @@
         <v>250</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>156.666666666666</v>
+      </c>
+      <c r="J5">
+        <v>12.631530214330899</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3473,25 +3805,25 @@
         <v>250</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0.45</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
+      <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>154.13333333333301</v>
+      </c>
+      <c r="J6">
+        <v>11.8988328092389</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3502,25 +3834,25 @@
         <v>250</v>
       </c>
       <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>150.6</v>
+      </c>
+      <c r="J7">
+        <v>13.6445349255052</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3531,25 +3863,25 @@
         <v>250</v>
       </c>
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
+      <c r="G8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>161.13333333333301</v>
+      </c>
+      <c r="J8">
+        <v>13.172530339898801</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3560,25 +3892,25 @@
         <v>250</v>
       </c>
       <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>150.46666666666599</v>
+      </c>
+      <c r="J9">
+        <v>15.316077246547801</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3589,161 +3921,376 @@
         <v>250</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0.65</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>154.4</v>
+      </c>
+      <c r="J10">
+        <v>14.961283367411999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>250</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>159.333333333333</v>
+      </c>
+      <c r="J11">
+        <v>13.8980414287609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>151</v>
+      </c>
+      <c r="J12">
+        <v>14.7218658237783</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>40</v>
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>154.666666666666</v>
+      </c>
+      <c r="J13">
+        <v>15.225709251861501</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
+      <c r="A14">
+        <v>100</v>
       </c>
       <c r="B14">
-        <v>124</v>
-      </c>
-      <c r="C14" s="1">
-        <v>150.6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13.6445349255052</v>
+        <v>250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0.85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>156.73333333333301</v>
+      </c>
+      <c r="J14">
+        <v>13.880281777479199</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
+      <c r="A15">
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>140</v>
-      </c>
-      <c r="C15" s="1">
-        <v>161.13333333333301</v>
-      </c>
-      <c r="D15" s="1">
-        <v>13.172530339898801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>118</v>
-      </c>
-      <c r="C16" s="1">
-        <v>150.46666666666599</v>
-      </c>
-      <c r="D16" s="1">
-        <v>15.316077246547801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>126</v>
-      </c>
-      <c r="C17" s="1">
-        <v>154.4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>14.961283367411999</v>
+        <v>250</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>151.86666666666599</v>
+      </c>
+      <c r="J15">
+        <v>14.8497661784809</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>128</v>
-      </c>
-      <c r="C18" s="1">
-        <v>159.333333333333</v>
-      </c>
-      <c r="D18" s="1">
-        <v>13.8980414287609</v>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>28</v>
+      <c r="A19">
+        <v>0.2</v>
       </c>
       <c r="B19">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1">
-        <v>151</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>14.7218658237783</v>
+        <v>14.645590917861</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
+      <c r="A20">
+        <v>0.25</v>
       </c>
       <c r="B20">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1">
-        <v>154.666666666666</v>
+        <v>167.2</v>
       </c>
       <c r="D20" s="1">
-        <v>15.225709251861501</v>
+        <v>16.698103684750102</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>34</v>
+      <c r="A21">
+        <v>0.35</v>
       </c>
       <c r="B21">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1">
-        <v>156.73333333333301</v>
+        <v>156.6</v>
       </c>
       <c r="D21" s="1">
-        <v>13.880281777479199</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
+      <c r="A22">
+        <v>0.4</v>
       </c>
       <c r="B22">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1">
+        <v>156.666666666666</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12.631530214330899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.45</v>
+      </c>
+      <c r="B23">
+        <v>130</v>
+      </c>
+      <c r="C23" s="1">
+        <v>154.13333333333301</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11.8988328092389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.5</v>
+      </c>
+      <c r="B24">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1">
+        <v>150.6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>13.6445349255052</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B25">
+        <v>140</v>
+      </c>
+      <c r="C25" s="1">
+        <v>161.13333333333301</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13.172530339898801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0.6</v>
+      </c>
+      <c r="B26">
+        <v>118</v>
+      </c>
+      <c r="C26" s="1">
+        <v>150.46666666666599</v>
+      </c>
+      <c r="D26" s="1">
+        <v>15.316077246547801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.65</v>
+      </c>
+      <c r="B27">
         <v>126</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C27" s="1">
+        <v>154.4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>14.961283367411999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.7</v>
+      </c>
+      <c r="B28">
+        <v>128</v>
+      </c>
+      <c r="C28" s="1">
+        <v>159.333333333333</v>
+      </c>
+      <c r="D28" s="1">
+        <v>13.8980414287609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.75</v>
+      </c>
+      <c r="B29">
+        <v>122</v>
+      </c>
+      <c r="C29" s="1">
+        <v>151</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14.7218658237783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.8</v>
+      </c>
+      <c r="B30">
+        <v>122</v>
+      </c>
+      <c r="C30" s="1">
+        <v>154.666666666666</v>
+      </c>
+      <c r="D30" s="1">
+        <v>15.225709251861501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.85</v>
+      </c>
+      <c r="B31">
+        <v>128</v>
+      </c>
+      <c r="C31" s="1">
+        <v>156.73333333333301</v>
+      </c>
+      <c r="D31" s="1">
+        <v>13.880281777479199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.9</v>
+      </c>
+      <c r="B32">
+        <v>126</v>
+      </c>
+      <c r="C32" s="1">
         <v>151.86666666666599</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D32" s="1">
         <v>14.8497661784809</v>
       </c>
     </row>
